--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgl1-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgl1-Lag3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Lag3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.100075</v>
+        <v>0.004391333333333333</v>
       </c>
       <c r="H2">
-        <v>0.300225</v>
+        <v>0.013174</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.04203587120571539</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04203587120571539</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.38865533333333</v>
+        <v>10.718847</v>
       </c>
       <c r="N2">
-        <v>31.165966</v>
+        <v>32.156541</v>
       </c>
       <c r="O2">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="P2">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="Q2">
-        <v>1.039644682483333</v>
+        <v>0.04707003012599999</v>
       </c>
       <c r="R2">
-        <v>9.35680214235</v>
+        <v>0.423630271134</v>
       </c>
       <c r="S2">
-        <v>0.2614041676606189</v>
+        <v>0.01039659234472749</v>
       </c>
       <c r="T2">
-        <v>0.2614041676606189</v>
+        <v>0.01039659234472749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.100075</v>
+        <v>0.004391333333333333</v>
       </c>
       <c r="H3">
-        <v>0.300225</v>
+        <v>0.013174</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.04203587120571539</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.04203587120571539</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.686503</v>
       </c>
       <c r="O3">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="P3">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="Q3">
-        <v>1.057008929241667</v>
+        <v>0.04638199894688888</v>
       </c>
       <c r="R3">
-        <v>9.513080363175002</v>
+        <v>0.417437990522</v>
       </c>
       <c r="S3">
-        <v>0.2657701655321932</v>
+        <v>0.01024462346621748</v>
       </c>
       <c r="T3">
-        <v>0.2657701655321932</v>
+        <v>0.01024462346621748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.100075</v>
+        <v>0.004391333333333333</v>
       </c>
       <c r="H4">
-        <v>0.300225</v>
+        <v>0.013174</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.04203587120571539</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.04203587120571539</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.885304333333333</v>
+        <v>7.214691666666667</v>
       </c>
       <c r="N4">
-        <v>11.655913</v>
+        <v>21.644075</v>
       </c>
       <c r="O4">
-        <v>0.09776383109991159</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="P4">
-        <v>0.0977638310999116</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="Q4">
-        <v>0.3888218311583333</v>
+        <v>0.03168211600555555</v>
       </c>
       <c r="R4">
-        <v>3.499396480425</v>
+        <v>0.28513904405</v>
       </c>
       <c r="S4">
-        <v>0.09776383109991159</v>
+        <v>0.006997786996235311</v>
       </c>
       <c r="T4">
-        <v>0.0977638310999116</v>
+        <v>0.006997786996235311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.100075</v>
+        <v>0.004391333333333333</v>
       </c>
       <c r="H5">
-        <v>0.300225</v>
+        <v>0.013174</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.04203587120571539</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.04203587120571539</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.90560833333333</v>
+        <v>14.84311633333333</v>
       </c>
       <c r="N5">
-        <v>44.716825</v>
+        <v>44.529349</v>
       </c>
       <c r="O5">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581226</v>
       </c>
       <c r="P5">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581225</v>
       </c>
       <c r="Q5">
-        <v>1.491678753958334</v>
+        <v>0.06518107152511111</v>
       </c>
       <c r="R5">
-        <v>13.425108785625</v>
+        <v>0.586629643726</v>
       </c>
       <c r="S5">
-        <v>0.3750618357072762</v>
+        <v>0.01439686839853511</v>
       </c>
       <c r="T5">
-        <v>0.3750618357072762</v>
+        <v>0.01439686839853511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.100075</v>
+      </c>
+      <c r="H6">
+        <v>0.300225</v>
+      </c>
+      <c r="I6">
+        <v>0.9579641287942846</v>
+      </c>
+      <c r="J6">
+        <v>0.9579641287942845</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.718847</v>
+      </c>
+      <c r="N6">
+        <v>32.156541</v>
+      </c>
+      <c r="O6">
+        <v>0.2473266771098565</v>
+      </c>
+      <c r="P6">
+        <v>0.2473266771098565</v>
+      </c>
+      <c r="Q6">
+        <v>1.072688613525</v>
+      </c>
+      <c r="R6">
+        <v>9.654197521724999</v>
+      </c>
+      <c r="S6">
+        <v>0.2369300847651291</v>
+      </c>
+      <c r="T6">
+        <v>0.236930084765129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.100075</v>
+      </c>
+      <c r="H7">
+        <v>0.300225</v>
+      </c>
+      <c r="I7">
+        <v>0.9579641287942846</v>
+      </c>
+      <c r="J7">
+        <v>0.9579641287942845</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.56216766666667</v>
+      </c>
+      <c r="N7">
+        <v>31.686503</v>
+      </c>
+      <c r="O7">
+        <v>0.2437114581515935</v>
+      </c>
+      <c r="P7">
+        <v>0.2437114581515935</v>
+      </c>
+      <c r="Q7">
+        <v>1.057008929241667</v>
+      </c>
+      <c r="R7">
+        <v>9.513080363175</v>
+      </c>
+      <c r="S7">
+        <v>0.233466834685376</v>
+      </c>
+      <c r="T7">
+        <v>0.233466834685376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.100075</v>
+      </c>
+      <c r="H8">
+        <v>0.300225</v>
+      </c>
+      <c r="I8">
+        <v>0.9579641287942846</v>
+      </c>
+      <c r="J8">
+        <v>0.9579641287942845</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.214691666666667</v>
+      </c>
+      <c r="N8">
+        <v>21.644075</v>
+      </c>
+      <c r="O8">
+        <v>0.1664717964804274</v>
+      </c>
+      <c r="P8">
+        <v>0.1664717964804274</v>
+      </c>
+      <c r="Q8">
+        <v>0.7220102685416667</v>
+      </c>
+      <c r="R8">
+        <v>6.498092416875001</v>
+      </c>
+      <c r="S8">
+        <v>0.1594740094841921</v>
+      </c>
+      <c r="T8">
+        <v>0.1594740094841921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.100075</v>
+      </c>
+      <c r="H9">
+        <v>0.300225</v>
+      </c>
+      <c r="I9">
+        <v>0.9579641287942846</v>
+      </c>
+      <c r="J9">
+        <v>0.9579641287942845</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.84311633333333</v>
+      </c>
+      <c r="N9">
+        <v>44.529349</v>
+      </c>
+      <c r="O9">
+        <v>0.3424900682581226</v>
+      </c>
+      <c r="P9">
+        <v>0.3424900682581225</v>
+      </c>
+      <c r="Q9">
+        <v>1.485424867058334</v>
+      </c>
+      <c r="R9">
+        <v>13.368823803525</v>
+      </c>
+      <c r="S9">
+        <v>0.3280931998595875</v>
+      </c>
+      <c r="T9">
+        <v>0.3280931998595873</v>
       </c>
     </row>
   </sheetData>
